--- a/entries.xlsx
+++ b/entries.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p.mangartz/Album Andreas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p.mangartz/qr-present/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E5114-2879-A344-A1E9-52F16E080D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100767B-2A7A-5D45-BD67-94AD47123A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="940" windowWidth="16880" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1235">
   <si>
     <t>ID</t>
   </si>
@@ -892,9 +905,6 @@
     <t>2018-03-29_125928.jpeg</t>
   </si>
   <si>
-    <t>2018-03-29 12:59:28</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/072.html</t>
   </si>
   <si>
@@ -1156,9 +1166,6 @@
     <t>2019-05-21_132006.jpeg</t>
   </si>
   <si>
-    <t>2019-05-21 13:20:06</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/094.html</t>
   </si>
   <si>
@@ -1168,9 +1175,6 @@
     <t>2019-05-21_132427.jpeg</t>
   </si>
   <si>
-    <t>2019-05-21 13:24:27</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/095.html</t>
   </si>
   <si>
@@ -1180,9 +1184,6 @@
     <t>2019-05-21_134628.jpeg</t>
   </si>
   <si>
-    <t>2019-05-21 13:46:28</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/096.html</t>
   </si>
   <si>
@@ -1192,9 +1193,6 @@
     <t>2019-05-21_134819.jpeg</t>
   </si>
   <si>
-    <t>2019-05-21 13:48:19</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/097.html</t>
   </si>
   <si>
@@ -1204,9 +1202,6 @@
     <t>2019-05-22_115013.jpeg</t>
   </si>
   <si>
-    <t>2019-05-22 11:50:13</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/098.html</t>
   </si>
   <si>
@@ -1300,9 +1295,6 @@
     <t>2019-10-15_135754.jpeg</t>
   </si>
   <si>
-    <t>2019-10-15 13:57:54</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/106.html</t>
   </si>
   <si>
@@ -1312,9 +1304,6 @@
     <t>2019-10-15_140824.jpeg</t>
   </si>
   <si>
-    <t>2019-10-15 14:08:24</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/107.html</t>
   </si>
   <si>
@@ -2548,9 +2537,6 @@
     <t>2025-08-03_001044.jpeg</t>
   </si>
   <si>
-    <t>2025-08-03 00:10:44</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/210.html</t>
   </si>
   <si>
@@ -2572,9 +2558,6 @@
     <t>2025-08-14_194042.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:40:42</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/212.html</t>
   </si>
   <si>
@@ -2584,9 +2567,6 @@
     <t>2025-08-14_194108.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:41:08</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/213.html</t>
   </si>
   <si>
@@ -2608,9 +2588,6 @@
     <t>2025-08-14_194231.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:42:31</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/215.html</t>
   </si>
   <si>
@@ -2620,9 +2597,6 @@
     <t>2025-08-14_194341.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:43:41</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/216.html</t>
   </si>
   <si>
@@ -2632,9 +2606,6 @@
     <t>2025-08-14_194539.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:45:39</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/217.html</t>
   </si>
   <si>
@@ -2644,9 +2615,6 @@
     <t>2025-08-14_194614.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:46:14</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/218.html</t>
   </si>
   <si>
@@ -2680,9 +2648,6 @@
     <t>2025-08-14_194738.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:47:38</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/221.html</t>
   </si>
   <si>
@@ -2704,9 +2669,6 @@
     <t>2025-08-14_194817.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:48:17</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/223.html</t>
   </si>
   <si>
@@ -2716,9 +2678,6 @@
     <t>2025-08-14_194822.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:48:22</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/224.html</t>
   </si>
   <si>
@@ -2740,9 +2699,6 @@
     <t>2025-08-14_194842.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:48:42</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/226.html</t>
   </si>
   <si>
@@ -2752,9 +2708,6 @@
     <t>2025-08-14_194905.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:05</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/227.html</t>
   </si>
   <si>
@@ -2764,9 +2717,6 @@
     <t>2025-08-14_194908.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:08</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/228.html</t>
   </si>
   <si>
@@ -2776,9 +2726,6 @@
     <t>2025-08-14_194916.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:16</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/229.html</t>
   </si>
   <si>
@@ -2788,9 +2735,6 @@
     <t>2025-08-14_194922.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:22</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/230.html</t>
   </si>
   <si>
@@ -2800,9 +2744,6 @@
     <t>2025-08-14_194931.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:31</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/231.html</t>
   </si>
   <si>
@@ -2812,9 +2753,6 @@
     <t>2025-08-14_194936.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:36</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/232.html</t>
   </si>
   <si>
@@ -2824,9 +2762,6 @@
     <t>2025-08-14_194938.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:38</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/233.html</t>
   </si>
   <si>
@@ -2836,9 +2771,6 @@
     <t>2025-08-14_194949.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:49:49</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/234.html</t>
   </si>
   <si>
@@ -2848,9 +2780,6 @@
     <t>2025-08-14_195008.jpeg</t>
   </si>
   <si>
-    <t>2025-08-14 19:50:08</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/235.html</t>
   </si>
   <si>
@@ -2860,9 +2789,6 @@
     <t>2025-08-20_113014.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:14</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/236.html</t>
   </si>
   <si>
@@ -2872,9 +2798,6 @@
     <t>2025-08-20_113018.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:18</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/237.html</t>
   </si>
   <si>
@@ -2920,9 +2843,6 @@
     <t>2025-08-20_113028.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:28</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/241.html</t>
   </si>
   <si>
@@ -2932,9 +2852,6 @@
     <t>2025-08-20_113033.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:33</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/242.html</t>
   </si>
   <si>
@@ -2944,9 +2861,6 @@
     <t>2025-08-20_113034.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:34</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/243.html</t>
   </si>
   <si>
@@ -2956,9 +2870,6 @@
     <t>2025-08-20_113038.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:38</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/244.html</t>
   </si>
   <si>
@@ -2968,9 +2879,6 @@
     <t>2025-08-20_113043.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:43</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/245.html</t>
   </si>
   <si>
@@ -2992,9 +2900,6 @@
     <t>2025-08-20_113048.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:48</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/247.html</t>
   </si>
   <si>
@@ -3004,9 +2909,6 @@
     <t>2025-08-20_113049.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:49</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/248.html</t>
   </si>
   <si>
@@ -3016,9 +2918,6 @@
     <t>2025-08-20_113053.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:53</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/249.html</t>
   </si>
   <si>
@@ -3028,9 +2927,6 @@
     <t>2025-08-20_113054.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:30:54</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/250.html</t>
   </si>
   <si>
@@ -3040,9 +2936,6 @@
     <t>2025-08-20_113103.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:03</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/251.html</t>
   </si>
   <si>
@@ -3052,9 +2945,6 @@
     <t>2025-08-20_113109.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:09</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/252.html</t>
   </si>
   <si>
@@ -3076,9 +2966,6 @@
     <t>2025-08-20_113114.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:14</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/254.html</t>
   </si>
   <si>
@@ -3088,9 +2975,6 @@
     <t>2025-08-20_113118.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:18</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/255.html</t>
   </si>
   <si>
@@ -3172,9 +3056,6 @@
     <t>2025-08-20_113138.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:38</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/262.html</t>
   </si>
   <si>
@@ -3196,9 +3077,6 @@
     <t>2025-08-20_113143.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:43</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/264.html</t>
   </si>
   <si>
@@ -3208,9 +3086,6 @@
     <t>2025-08-20_113144.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:44</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/265.html</t>
   </si>
   <si>
@@ -3220,9 +3095,6 @@
     <t>2025-08-20_113148.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:48</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/266.html</t>
   </si>
   <si>
@@ -3232,9 +3104,6 @@
     <t>2025-08-20_113149.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:49</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/267.html</t>
   </si>
   <si>
@@ -3244,9 +3113,6 @@
     <t>2025-08-20_113153.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:53</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/268.html</t>
   </si>
   <si>
@@ -3256,9 +3122,6 @@
     <t>2025-08-20_113154.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:54</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/269.html</t>
   </si>
   <si>
@@ -3268,9 +3131,6 @@
     <t>2025-08-20_113159.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:31:59</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/270.html</t>
   </si>
   <si>
@@ -3280,9 +3140,6 @@
     <t>2025-08-20_113203.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:03</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/271.html</t>
   </si>
   <si>
@@ -3292,9 +3149,6 @@
     <t>2025-08-20_113204.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:04</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/272.html</t>
   </si>
   <si>
@@ -3328,9 +3182,6 @@
     <t>2025-08-20_113214.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:14</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/275.html</t>
   </si>
   <si>
@@ -3340,9 +3191,6 @@
     <t>2025-08-20_113218.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:18</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/276.html</t>
   </si>
   <si>
@@ -3376,9 +3224,6 @@
     <t>2025-08-20_113224.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:24</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/279.html</t>
   </si>
   <si>
@@ -3388,9 +3233,6 @@
     <t>2025-08-20_113229.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:29</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/280.html</t>
   </si>
   <si>
@@ -3400,9 +3242,6 @@
     <t>2025-08-20_113234.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:34</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/281.html</t>
   </si>
   <si>
@@ -3412,9 +3251,6 @@
     <t>2025-08-20_113239.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:39</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/282.html</t>
   </si>
   <si>
@@ -3424,9 +3260,6 @@
     <t>2025-08-20_113244.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:32:44</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/283.html</t>
   </si>
   <si>
@@ -3436,20 +3269,482 @@
     <t>2025-08-20_113301.jpeg</t>
   </si>
   <si>
-    <t>2025-08-20 11:33:01</t>
-  </si>
-  <si>
     <t>https://pama05.github.io/qr-present/e/284.html</t>
   </si>
   <si>
     <t>Bildname</t>
+  </si>
+  <si>
+    <t>2011-10-30 11:33:01</t>
+  </si>
+  <si>
+    <t>Kroatien Geb. der Oma</t>
+  </si>
+  <si>
+    <t>2025-07-13 11:32:44</t>
+  </si>
+  <si>
+    <t>2025-06-17 11:32:39</t>
+  </si>
+  <si>
+    <t>2025-07-17 11:32:24</t>
+  </si>
+  <si>
+    <t>Florenz</t>
+  </si>
+  <si>
+    <t>Eisdiele Roetgen</t>
+  </si>
+  <si>
+    <t>Juist</t>
+  </si>
+  <si>
+    <t>Kaprun</t>
+  </si>
+  <si>
+    <t>1988-05-30 11:32:34</t>
+  </si>
+  <si>
+    <t>Anne's 50. Geburtstag</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>2024-01-204 11:32:18</t>
+  </si>
+  <si>
+    <t>2023-11-08 11:32:14</t>
+  </si>
+  <si>
+    <t>Algave Eilendorf</t>
+  </si>
+  <si>
+    <t>Berti</t>
+  </si>
+  <si>
+    <t>2023-01-02 11:32:04</t>
+  </si>
+  <si>
+    <t>2024-09-01 11:32:29</t>
+  </si>
+  <si>
+    <t>Kroatien</t>
+  </si>
+  <si>
+    <t>2019-08-03 11:31:59</t>
+  </si>
+  <si>
+    <t>Isi&amp;Paul standesamtl. Hochzeit</t>
+  </si>
+  <si>
+    <t>2022-07-14 11:31:54</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>2022-05-18 11:31:53</t>
+  </si>
+  <si>
+    <t>Drei Ländereck BE DE LUX</t>
+  </si>
+  <si>
+    <t>Ostern</t>
+  </si>
+  <si>
+    <t>2022-04-17 11:31:49</t>
+  </si>
+  <si>
+    <t>2022-02-17 11:31:48</t>
+  </si>
+  <si>
+    <t>Luna nach Beates Beerdigung</t>
+  </si>
+  <si>
+    <t>20. Jahre Feier M3</t>
+  </si>
+  <si>
+    <t>2021-10-23 11:31:44</t>
+  </si>
+  <si>
+    <t>Comer See</t>
+  </si>
+  <si>
+    <t>2021-07-25 11:31:43</t>
+  </si>
+  <si>
+    <t>2021-04-06 11:31:38</t>
+  </si>
+  <si>
+    <t>Impfzentrum Aachen</t>
+  </si>
+  <si>
+    <t>2022-10-08 11:32:03</t>
+  </si>
+  <si>
+    <t>Ghana Strand</t>
+  </si>
+  <si>
+    <t>Florenz Steak essen</t>
+  </si>
+  <si>
+    <t>2018-08-15 11:30:54</t>
+  </si>
+  <si>
+    <t>Kroatien Trip mit Verbrecher Cousins</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:31:03</t>
+  </si>
+  <si>
+    <t>2019-12-31 11:31:14</t>
+  </si>
+  <si>
+    <t>Tignes</t>
+  </si>
+  <si>
+    <t>2019-07-16 11:31:09</t>
+  </si>
+  <si>
+    <t>2018-06-10 11:30:53</t>
+  </si>
+  <si>
+    <t>Math Works Triathlon</t>
+  </si>
+  <si>
+    <t>2018-01-14 11:30:49</t>
+  </si>
+  <si>
+    <t>Grand Canyon</t>
+  </si>
+  <si>
+    <t>2020-07-11 11:31:18</t>
+  </si>
+  <si>
+    <t>Krotien</t>
+  </si>
+  <si>
+    <t>2017-06-04 11:30:43</t>
+  </si>
+  <si>
+    <t>2016-05-26 11:30:38</t>
+  </si>
+  <si>
+    <t>Hellental</t>
+  </si>
+  <si>
+    <t>2016-03-22 11:30:34</t>
+  </si>
+  <si>
+    <t>Ghana Audienz Präsident</t>
+  </si>
+  <si>
+    <t>2015-05-20 11:30:33</t>
+  </si>
+  <si>
+    <t>2015-06-13 11:30:28</t>
+  </si>
+  <si>
+    <t>2013-12-26 11:30:14</t>
+  </si>
+  <si>
+    <t>2. Weihnachtstag schmusen mit Bubi</t>
+  </si>
+  <si>
+    <t>2014-01-25 11:30:18</t>
+  </si>
+  <si>
+    <t>San Diego, Vorfreude auf den Enkel</t>
+  </si>
+  <si>
+    <t>1994-01-01 19:49:49</t>
+  </si>
+  <si>
+    <t>1996-01-01 19:49:49</t>
+  </si>
+  <si>
+    <t>1993-12-01 19:49:49</t>
+  </si>
+  <si>
+    <t>2011-12-24 19:48:42</t>
+  </si>
+  <si>
+    <t>2011-07-14 19:48:17</t>
+  </si>
+  <si>
+    <t>2008-12-31 19:47:38</t>
+  </si>
+  <si>
+    <t>2000-09-22 19:46:14</t>
+  </si>
+  <si>
+    <t>2001-02-20 19:43:41</t>
+  </si>
+  <si>
+    <t>2003-05-14 19:45:39</t>
+  </si>
+  <si>
+    <t>1994-04-14 19:41:08</t>
+  </si>
+  <si>
+    <t>2017-08-22 00:10:44</t>
+  </si>
+  <si>
+    <t>1990-09-14 19:40:42</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>1995-11-06 19:42:31</t>
+  </si>
+  <si>
+    <t>Hexengeburtstag</t>
+  </si>
+  <si>
+    <t>Indianergeburtstag</t>
+  </si>
+  <si>
+    <t>Charlotte Taufe</t>
+  </si>
+  <si>
+    <t>Maya Taufe - Solchbachtal</t>
+  </si>
+  <si>
+    <t>Dorfgastein</t>
+  </si>
+  <si>
+    <t>Venedig</t>
+  </si>
+  <si>
+    <t>Konfirmation Miriam</t>
+  </si>
+  <si>
+    <t>Einzug Leni</t>
+  </si>
+  <si>
+    <t>Langholz</t>
+  </si>
+  <si>
+    <t>Isi mit Omi</t>
+  </si>
+  <si>
+    <t>Einzug Isi</t>
+  </si>
+  <si>
+    <t>Champagny</t>
+  </si>
+  <si>
+    <t>Typischer Nachmittag mit Bubi</t>
+  </si>
+  <si>
+    <t>Hochzeit Markus &amp; Susanne</t>
+  </si>
+  <si>
+    <t>Einzug Corvette</t>
+  </si>
+  <si>
+    <t>Geburt Leya</t>
+  </si>
+  <si>
+    <t>Taufe Leya</t>
+  </si>
+  <si>
+    <t>Babyschwimmen mit Leya</t>
+  </si>
+  <si>
+    <t>Südtirol Cislon Alm</t>
+  </si>
+  <si>
+    <t>Konfirmation Charlotte</t>
+  </si>
+  <si>
+    <t>Fähre nach Juist</t>
+  </si>
+  <si>
+    <t>Aufstieg Landesliga</t>
+  </si>
+  <si>
+    <t>Bittburgerpokalsieg</t>
+  </si>
+  <si>
+    <t>Treffen mit netter Katze</t>
+  </si>
+  <si>
+    <t>1994-04-01 12:59:28</t>
+  </si>
+  <si>
+    <t>Kreta Maris</t>
+  </si>
+  <si>
+    <t>Geburt Anni</t>
+  </si>
+  <si>
+    <t>Leccie</t>
+  </si>
+  <si>
+    <t>Sienna</t>
+  </si>
+  <si>
+    <t>Dicht in nem Flieger</t>
+  </si>
+  <si>
+    <t>Bild mit Frosch</t>
+  </si>
+  <si>
+    <t>Bei Lanfis</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Vorrocken</t>
+  </si>
+  <si>
+    <t>1994-08-21 13:20:06</t>
+  </si>
+  <si>
+    <t>Einschulung</t>
+  </si>
+  <si>
+    <t>35. Hochzeitstag</t>
+  </si>
+  <si>
+    <t>Stefan Bachlor Feier</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>1994-04-15 13:57:54</t>
+  </si>
+  <si>
+    <t>1990-10-15 14:08:24</t>
+  </si>
+  <si>
+    <t>Andrea 60. Geburtstag</t>
+  </si>
+  <si>
+    <t>Mailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Südtirol </t>
+  </si>
+  <si>
+    <t>Comer See Nahtoderfahrung</t>
+  </si>
+  <si>
+    <t>Il Cocco</t>
+  </si>
+  <si>
+    <t>Castello Brunello</t>
+  </si>
+  <si>
+    <t>Montalcino</t>
+  </si>
+  <si>
+    <t>Loogster Teehaus</t>
+  </si>
+  <si>
+    <t>Weihnachten</t>
+  </si>
+  <si>
+    <t>Rock in Rott</t>
+  </si>
+  <si>
+    <t>Kirchliche Hochzeit Isi &amp; Paul</t>
+  </si>
+  <si>
+    <t>Emilios 50. Geburtstag</t>
+  </si>
+  <si>
+    <t>Leya Abschlussfeier Grundschule</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>Isi Geburtstag</t>
+  </si>
+  <si>
+    <t>Weihnachten mit Paarhandschuh</t>
+  </si>
+  <si>
+    <t>Tivoli</t>
+  </si>
+  <si>
+    <t>Leyas Geburtstag</t>
+  </si>
+  <si>
+    <t>Abschiedsfeier SV Rott</t>
+  </si>
+  <si>
+    <t>Ligurien</t>
+  </si>
+  <si>
+    <t>Karneval</t>
+  </si>
+  <si>
+    <t>Weihnachten mit Bierpong</t>
+  </si>
+  <si>
+    <t>Leya Kommunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luna </t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florenz </t>
+  </si>
+  <si>
+    <t>Baristinho</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Spaziergang Talsperre Roetgen</t>
+  </si>
+  <si>
+    <t>50. Jahr Feier SV Rott</t>
+  </si>
+  <si>
+    <t>Leya Umtopfung ans Inda</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>1969-05-21 13:24:27</t>
+  </si>
+  <si>
+    <t>Andreas &amp; Thomas</t>
+  </si>
+  <si>
+    <t>1987-05-21 13:46:28</t>
+  </si>
+  <si>
+    <t>1987-05-21 13:48:19</t>
+  </si>
+  <si>
+    <t>1998-05-22 11:50:13</t>
+  </si>
+  <si>
+    <t>München</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3462,6 +3757,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3499,11 +3808,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3808,14 +4126,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
@@ -3825,9 +4143,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3844,8 +4162,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1157</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3858,8 +4179,11 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1158</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3872,7 +4196,7 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
@@ -3886,7 +4210,7 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -3900,8 +4224,11 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1159</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -3914,8 +4241,11 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1159</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3928,8 +4258,11 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1159</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -3942,8 +4275,11 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1095</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -3956,8 +4292,11 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1159</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
@@ -3970,7 +4309,7 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E11" t="s">
@@ -3984,7 +4323,7 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
@@ -3998,7 +4337,7 @@
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E13" t="s">
@@ -4012,8 +4351,11 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1160</v>
       </c>
       <c r="E14" t="s">
         <v>55</v>
@@ -4026,8 +4368,11 @@
       <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1161</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -4040,8 +4385,11 @@
       <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1161</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
@@ -4054,8 +4402,11 @@
       <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1161</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -4068,8 +4419,11 @@
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1081</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
@@ -4082,8 +4436,11 @@
       <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1162</v>
       </c>
       <c r="E19" t="s">
         <v>75</v>
@@ -4096,8 +4453,11 @@
       <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1163</v>
       </c>
       <c r="E20" t="s">
         <v>79</v>
@@ -4110,7 +4470,7 @@
       <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E21" t="s">
@@ -4124,8 +4484,11 @@
       <c r="B22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1164</v>
       </c>
       <c r="E22" t="s">
         <v>87</v>
@@ -4138,8 +4501,11 @@
       <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1165</v>
       </c>
       <c r="E23" t="s">
         <v>91</v>
@@ -4152,8 +4518,11 @@
       <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1166</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
@@ -4166,8 +4535,11 @@
       <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1166</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -4180,8 +4552,11 @@
       <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1167</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -4194,8 +4569,11 @@
       <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1168</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -4208,8 +4586,11 @@
       <c r="B28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1168</v>
       </c>
       <c r="E28" t="s">
         <v>111</v>
@@ -4222,8 +4603,11 @@
       <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1168</v>
       </c>
       <c r="E29" t="s">
         <v>115</v>
@@ -4236,8 +4620,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1168</v>
       </c>
       <c r="E30" t="s">
         <v>119</v>
@@ -4250,8 +4637,11 @@
       <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1168</v>
       </c>
       <c r="E31" t="s">
         <v>123</v>
@@ -4264,8 +4654,11 @@
       <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>126</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1168</v>
       </c>
       <c r="E32" t="s">
         <v>127</v>
@@ -4278,8 +4671,11 @@
       <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>130</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1168</v>
       </c>
       <c r="E33" t="s">
         <v>131</v>
@@ -4292,8 +4688,11 @@
       <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>134</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>1168</v>
       </c>
       <c r="E34" t="s">
         <v>135</v>
@@ -4306,8 +4705,11 @@
       <c r="B35" t="s">
         <v>137</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>138</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E35" t="s">
         <v>139</v>
@@ -4320,8 +4722,11 @@
       <c r="B36" t="s">
         <v>141</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>142</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E36" t="s">
         <v>143</v>
@@ -4334,8 +4739,11 @@
       <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>146</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E37" t="s">
         <v>147</v>
@@ -4348,8 +4756,11 @@
       <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>150</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E38" t="s">
         <v>151</v>
@@ -4362,8 +4773,11 @@
       <c r="B39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>154</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
@@ -4376,8 +4790,11 @@
       <c r="B40" t="s">
         <v>157</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>158</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
@@ -4390,8 +4807,11 @@
       <c r="B41" t="s">
         <v>161</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>162</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1169</v>
       </c>
       <c r="E41" t="s">
         <v>163</v>
@@ -4404,8 +4824,11 @@
       <c r="B42" t="s">
         <v>165</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>166</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1087</v>
       </c>
       <c r="E42" t="s">
         <v>167</v>
@@ -4418,8 +4841,11 @@
       <c r="B43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>170</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>1087</v>
       </c>
       <c r="E43" t="s">
         <v>171</v>
@@ -4432,8 +4858,11 @@
       <c r="B44" t="s">
         <v>173</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>174</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1170</v>
       </c>
       <c r="E44" t="s">
         <v>175</v>
@@ -4446,8 +4875,11 @@
       <c r="B45" t="s">
         <v>177</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>178</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1171</v>
       </c>
       <c r="E45" t="s">
         <v>179</v>
@@ -4460,8 +4892,11 @@
       <c r="B46" t="s">
         <v>181</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>182</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
@@ -4474,8 +4909,11 @@
       <c r="B47" t="s">
         <v>185</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>186</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E47" t="s">
         <v>187</v>
@@ -4488,8 +4926,11 @@
       <c r="B48" t="s">
         <v>189</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>190</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1172</v>
       </c>
       <c r="E48" t="s">
         <v>191</v>
@@ -4502,8 +4943,11 @@
       <c r="B49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>194</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1173</v>
       </c>
       <c r="E49" t="s">
         <v>195</v>
@@ -4516,8 +4960,11 @@
       <c r="B50" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1173</v>
       </c>
       <c r="E50" t="s">
         <v>199</v>
@@ -4530,8 +4977,11 @@
       <c r="B51" t="s">
         <v>201</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>202</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1173</v>
       </c>
       <c r="E51" t="s">
         <v>203</v>
@@ -4544,8 +4994,11 @@
       <c r="B52" t="s">
         <v>205</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E52" t="s">
         <v>207</v>
@@ -4558,8 +5011,11 @@
       <c r="B53" t="s">
         <v>209</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>210</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>1166</v>
       </c>
       <c r="E53" t="s">
         <v>211</v>
@@ -4572,7 +5028,7 @@
       <c r="B54" t="s">
         <v>213</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E54" t="s">
@@ -4586,8 +5042,11 @@
       <c r="B55" t="s">
         <v>217</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>218</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1174</v>
       </c>
       <c r="E55" t="s">
         <v>219</v>
@@ -4600,7 +5059,7 @@
       <c r="B56" t="s">
         <v>221</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E56" t="s">
@@ -4614,8 +5073,11 @@
       <c r="B57" t="s">
         <v>225</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>226</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>1175</v>
       </c>
       <c r="E57" t="s">
         <v>227</v>
@@ -4628,8 +5090,11 @@
       <c r="B58" t="s">
         <v>229</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1175</v>
       </c>
       <c r="E58" t="s">
         <v>231</v>
@@ -4642,8 +5107,11 @@
       <c r="B59" t="s">
         <v>233</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>234</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1175</v>
       </c>
       <c r="E59" t="s">
         <v>235</v>
@@ -4656,8 +5124,11 @@
       <c r="B60" t="s">
         <v>237</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1175</v>
       </c>
       <c r="E60" t="s">
         <v>239</v>
@@ -4670,7 +5141,7 @@
       <c r="B61" t="s">
         <v>241</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E61" t="s">
@@ -4684,7 +5155,7 @@
       <c r="B62" t="s">
         <v>245</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E62" t="s">
@@ -4698,8 +5169,11 @@
       <c r="B63" t="s">
         <v>249</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>250</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1176</v>
       </c>
       <c r="E63" t="s">
         <v>251</v>
@@ -4712,8 +5186,11 @@
       <c r="B64" t="s">
         <v>253</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1098</v>
       </c>
       <c r="E64" t="s">
         <v>255</v>
@@ -4726,8 +5203,11 @@
       <c r="B65" t="s">
         <v>257</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>258</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1095</v>
       </c>
       <c r="E65" t="s">
         <v>259</v>
@@ -4740,8 +5220,11 @@
       <c r="B66" t="s">
         <v>261</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1178</v>
       </c>
       <c r="E66" t="s">
         <v>263</v>
@@ -4754,7 +5237,7 @@
       <c r="B67" t="s">
         <v>265</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>266</v>
       </c>
       <c r="E67" t="s">
@@ -4768,8 +5251,11 @@
       <c r="B68" t="s">
         <v>269</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>270</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1177</v>
       </c>
       <c r="E68" t="s">
         <v>271</v>
@@ -4782,7 +5268,7 @@
       <c r="B69" t="s">
         <v>273</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>274</v>
       </c>
       <c r="E69" t="s">
@@ -4796,8 +5282,11 @@
       <c r="B70" t="s">
         <v>277</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1127</v>
       </c>
       <c r="E70" t="s">
         <v>279</v>
@@ -4810,7 +5299,7 @@
       <c r="B71" t="s">
         <v>281</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>282</v>
       </c>
       <c r="E71" t="s">
@@ -4824,7 +5313,7 @@
       <c r="B72" t="s">
         <v>285</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E72" t="s">
@@ -4838,2979 +5327,3372 @@
       <c r="B73" t="s">
         <v>289</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E73" t="s">
         <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
         <v>292</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>294</v>
-      </c>
-      <c r="E74" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" t="s">
         <v>296</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E75" t="s">
         <v>298</v>
-      </c>
-      <c r="E75" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" t="s">
         <v>300</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>302</v>
-      </c>
-      <c r="E76" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
         <v>304</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E77" t="s">
         <v>306</v>
-      </c>
-      <c r="E77" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" t="s">
         <v>308</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>310</v>
-      </c>
-      <c r="E78" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" t="s">
         <v>312</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E79" t="s">
         <v>314</v>
-      </c>
-      <c r="E79" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" t="s">
         <v>316</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E80" t="s">
         <v>318</v>
-      </c>
-      <c r="E80" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" t="s">
         <v>320</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>322</v>
-      </c>
-      <c r="E81" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
         <v>324</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>326</v>
-      </c>
-      <c r="E82" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>327</v>
+      </c>
+      <c r="B83" t="s">
         <v>328</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>330</v>
-      </c>
-      <c r="E83" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>331</v>
+      </c>
+      <c r="B84" t="s">
         <v>332</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E84" t="s">
         <v>334</v>
-      </c>
-      <c r="E84" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" t="s">
         <v>336</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E85" t="s">
         <v>338</v>
-      </c>
-      <c r="E85" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" t="s">
         <v>340</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E86" t="s">
         <v>342</v>
-      </c>
-      <c r="E86" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" t="s">
         <v>344</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>346</v>
-      </c>
-      <c r="E87" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" t="s">
         <v>348</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>350</v>
-      </c>
-      <c r="E88" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" t="s">
         <v>352</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>354</v>
-      </c>
-      <c r="E89" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" t="s">
         <v>356</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E90" t="s">
         <v>358</v>
-      </c>
-      <c r="E90" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" t="s">
         <v>360</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E91" t="s">
         <v>362</v>
-      </c>
-      <c r="E91" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>363</v>
+      </c>
+      <c r="B92" t="s">
         <v>364</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E92" t="s">
         <v>366</v>
-      </c>
-      <c r="E92" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>367</v>
+      </c>
+      <c r="B93" t="s">
         <v>368</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E93" t="s">
         <v>370</v>
-      </c>
-      <c r="E93" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" t="s">
         <v>372</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E94" t="s">
         <v>374</v>
-      </c>
-      <c r="E94" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" t="s">
         <v>376</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E95" t="s">
         <v>377</v>
-      </c>
-      <c r="C95" t="s">
-        <v>378</v>
-      </c>
-      <c r="E95" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E96" t="s">
         <v>380</v>
-      </c>
-      <c r="B96" t="s">
-        <v>381</v>
-      </c>
-      <c r="C96" t="s">
-        <v>382</v>
-      </c>
-      <c r="E96" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
-      </c>
-      <c r="C97" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1231</v>
       </c>
       <c r="E97" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1232</v>
       </c>
       <c r="E98" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
-      </c>
-      <c r="C99" t="s">
-        <v>394</v>
+        <v>388</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1233</v>
       </c>
       <c r="E99" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1087</v>
       </c>
       <c r="E100" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
-      </c>
-      <c r="C101" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1100</v>
       </c>
       <c r="E101" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" t="s">
-        <v>406</v>
+        <v>399</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="E102" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
-      </c>
-      <c r="C103" t="s">
-        <v>410</v>
+        <v>403</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1193</v>
       </c>
       <c r="E103" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
-      </c>
-      <c r="C104" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1193</v>
       </c>
       <c r="E104" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
-      </c>
-      <c r="C105" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1194</v>
       </c>
       <c r="E105" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
-      </c>
-      <c r="C106" t="s">
-        <v>422</v>
+        <v>415</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1194</v>
       </c>
       <c r="E106" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
-      </c>
-      <c r="C107" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1180</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
-      </c>
-      <c r="C108" t="s">
-        <v>430</v>
+        <v>422</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1196</v>
       </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B109" t="s">
-        <v>433</v>
-      </c>
-      <c r="C109" t="s">
-        <v>434</v>
+        <v>425</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1095</v>
       </c>
       <c r="E109" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B110" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" t="s">
-        <v>438</v>
+        <v>429</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1197</v>
       </c>
       <c r="E110" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
-      </c>
-      <c r="C111" t="s">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1198</v>
       </c>
       <c r="E111" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
-      </c>
-      <c r="C112" t="s">
-        <v>446</v>
+        <v>437</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1198</v>
       </c>
       <c r="E112" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
-      </c>
-      <c r="C113" t="s">
-        <v>450</v>
+        <v>441</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1198</v>
       </c>
       <c r="E113" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
-      </c>
-      <c r="C114" t="s">
-        <v>454</v>
+        <v>445</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1198</v>
       </c>
       <c r="E114" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
-      </c>
-      <c r="C115" t="s">
-        <v>458</v>
+        <v>449</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1098</v>
       </c>
       <c r="E115" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
-      </c>
-      <c r="C116" t="s">
-        <v>462</v>
+        <v>453</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1098</v>
       </c>
       <c r="E116" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
-      </c>
-      <c r="C117" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1204</v>
       </c>
       <c r="E117" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C118" t="s">
-        <v>470</v>
+        <v>461</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1158</v>
       </c>
       <c r="E118" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B119" t="s">
-        <v>473</v>
-      </c>
-      <c r="C119" t="s">
-        <v>474</v>
+        <v>465</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="E119" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
-      </c>
-      <c r="C120" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1199</v>
       </c>
       <c r="E120" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
-      </c>
-      <c r="C121" t="s">
-        <v>482</v>
+        <v>473</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1199</v>
       </c>
       <c r="E121" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
-      </c>
-      <c r="C122" t="s">
-        <v>486</v>
+        <v>477</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="E122" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B123" t="s">
-        <v>489</v>
-      </c>
-      <c r="C123" t="s">
-        <v>490</v>
+        <v>481</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="E123" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
-      </c>
-      <c r="C124" t="s">
-        <v>494</v>
+        <v>485</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="E124" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
-      </c>
-      <c r="C125" t="s">
-        <v>498</v>
+        <v>489</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="E125" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
-      </c>
-      <c r="C126" t="s">
-        <v>502</v>
+        <v>493</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="E126" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
-      </c>
-      <c r="C127" t="s">
-        <v>506</v>
+        <v>497</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="E127" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
-      </c>
-      <c r="C128" t="s">
-        <v>510</v>
+        <v>501</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1087</v>
       </c>
       <c r="E128" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B129" t="s">
-        <v>513</v>
-      </c>
-      <c r="C129" t="s">
-        <v>514</v>
+        <v>505</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1202</v>
       </c>
       <c r="E129" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B130" t="s">
-        <v>517</v>
-      </c>
-      <c r="C130" t="s">
-        <v>518</v>
+        <v>509</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1203</v>
       </c>
       <c r="E130" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
-      </c>
-      <c r="C131" t="s">
-        <v>522</v>
+        <v>513</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1203</v>
       </c>
       <c r="E131" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B132" t="s">
-        <v>525</v>
-      </c>
-      <c r="C132" t="s">
-        <v>526</v>
+        <v>517</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1201</v>
       </c>
       <c r="E132" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
-      </c>
-      <c r="C133" t="s">
-        <v>530</v>
+        <v>521</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1200</v>
       </c>
       <c r="E133" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B134" t="s">
-        <v>533</v>
-      </c>
-      <c r="C134" t="s">
-        <v>534</v>
+        <v>525</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1221</v>
       </c>
       <c r="E134" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
-      </c>
-      <c r="C135" t="s">
-        <v>538</v>
+        <v>529</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1085</v>
       </c>
       <c r="E135" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B136" t="s">
-        <v>541</v>
-      </c>
-      <c r="C136" t="s">
-        <v>542</v>
+        <v>533</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1085</v>
       </c>
       <c r="E136" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B137" t="s">
-        <v>545</v>
-      </c>
-      <c r="C137" t="s">
-        <v>546</v>
+        <v>537</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1222</v>
       </c>
       <c r="E137" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B138" t="s">
-        <v>549</v>
-      </c>
-      <c r="C138" t="s">
-        <v>550</v>
+        <v>541</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1182</v>
       </c>
       <c r="E138" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
-      </c>
-      <c r="C139" t="s">
-        <v>554</v>
+        <v>545</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1205</v>
       </c>
       <c r="E139" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B140" t="s">
-        <v>557</v>
-      </c>
-      <c r="C140" t="s">
-        <v>558</v>
+        <v>549</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1205</v>
       </c>
       <c r="E140" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
-      </c>
-      <c r="C141" t="s">
-        <v>562</v>
+        <v>553</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1095</v>
       </c>
       <c r="E141" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
-      </c>
-      <c r="C142" t="s">
-        <v>566</v>
+        <v>557</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E142" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B143" t="s">
-        <v>569</v>
-      </c>
-      <c r="C143" t="s">
-        <v>570</v>
+        <v>561</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="E143" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
-      </c>
-      <c r="C144" t="s">
-        <v>574</v>
+        <v>565</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1105</v>
       </c>
       <c r="E144" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B145" t="s">
-        <v>577</v>
-      </c>
-      <c r="C145" t="s">
-        <v>578</v>
+        <v>569</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1188</v>
       </c>
       <c r="E145" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
-      </c>
-      <c r="C146" t="s">
-        <v>582</v>
+        <v>573</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="E146" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B147" t="s">
-        <v>585</v>
-      </c>
-      <c r="C147" t="s">
-        <v>586</v>
+        <v>577</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1192</v>
       </c>
       <c r="E147" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
-      </c>
-      <c r="C148" t="s">
-        <v>590</v>
+        <v>581</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="E148" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B149" t="s">
-        <v>593</v>
-      </c>
-      <c r="C149" t="s">
-        <v>594</v>
+        <v>585</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="E149" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B150" t="s">
-        <v>597</v>
-      </c>
-      <c r="C150" t="s">
-        <v>598</v>
+        <v>589</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1191</v>
       </c>
       <c r="E150" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B151" t="s">
-        <v>601</v>
-      </c>
-      <c r="C151" t="s">
-        <v>602</v>
+        <v>593</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1198</v>
       </c>
       <c r="E151" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
-      </c>
-      <c r="C152" t="s">
-        <v>606</v>
+        <v>597</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1198</v>
       </c>
       <c r="E152" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B153" t="s">
-        <v>609</v>
-      </c>
-      <c r="C153" t="s">
-        <v>610</v>
+        <v>601</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1202</v>
       </c>
       <c r="E153" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B154" t="s">
-        <v>613</v>
-      </c>
-      <c r="C154" t="s">
-        <v>614</v>
+        <v>605</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1202</v>
       </c>
       <c r="E154" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B155" t="s">
-        <v>617</v>
-      </c>
-      <c r="C155" t="s">
-        <v>618</v>
+        <v>609</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1202</v>
       </c>
       <c r="E155" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B156" t="s">
-        <v>621</v>
-      </c>
-      <c r="C156" t="s">
-        <v>622</v>
+        <v>613</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1206</v>
       </c>
       <c r="E156" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B157" t="s">
-        <v>625</v>
-      </c>
-      <c r="C157" t="s">
-        <v>626</v>
+        <v>617</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="E157" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B158" t="s">
-        <v>629</v>
-      </c>
-      <c r="C158" t="s">
-        <v>630</v>
+        <v>621</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1207</v>
       </c>
       <c r="E158" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s">
-        <v>633</v>
-      </c>
-      <c r="C159" t="s">
-        <v>634</v>
+        <v>625</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1223</v>
       </c>
       <c r="E159" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B160" t="s">
-        <v>637</v>
-      </c>
-      <c r="C160" t="s">
-        <v>638</v>
+        <v>629</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1098</v>
       </c>
       <c r="E160" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B161" t="s">
-        <v>641</v>
-      </c>
-      <c r="C161" t="s">
-        <v>642</v>
+        <v>633</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1220</v>
       </c>
       <c r="E161" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B162" t="s">
-        <v>645</v>
-      </c>
-      <c r="C162" t="s">
-        <v>646</v>
+        <v>637</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1224</v>
       </c>
       <c r="E162" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B163" t="s">
-        <v>649</v>
-      </c>
-      <c r="C163" t="s">
-        <v>650</v>
+        <v>641</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1224</v>
       </c>
       <c r="E163" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B164" t="s">
-        <v>653</v>
-      </c>
-      <c r="C164" t="s">
-        <v>654</v>
+        <v>645</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1224</v>
       </c>
       <c r="E164" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B165" t="s">
-        <v>657</v>
-      </c>
-      <c r="C165" t="s">
-        <v>658</v>
+        <v>649</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="E165" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B166" t="s">
-        <v>661</v>
-      </c>
-      <c r="C166" t="s">
-        <v>662</v>
+        <v>653</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1219</v>
       </c>
       <c r="E166" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B167" t="s">
-        <v>665</v>
-      </c>
-      <c r="C167" t="s">
-        <v>666</v>
+        <v>657</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1207</v>
       </c>
       <c r="E167" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B168" t="s">
-        <v>669</v>
-      </c>
-      <c r="C168" t="s">
-        <v>670</v>
+        <v>661</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1094</v>
       </c>
       <c r="E168" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B169" t="s">
-        <v>673</v>
-      </c>
-      <c r="C169" t="s">
-        <v>674</v>
+        <v>665</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1216</v>
       </c>
       <c r="E169" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B170" t="s">
-        <v>677</v>
-      </c>
-      <c r="C170" t="s">
-        <v>678</v>
+        <v>669</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1216</v>
       </c>
       <c r="E170" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B171" t="s">
-        <v>681</v>
-      </c>
-      <c r="C171" t="s">
-        <v>682</v>
+        <v>673</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1216</v>
       </c>
       <c r="E171" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B172" t="s">
-        <v>685</v>
-      </c>
-      <c r="C172" t="s">
-        <v>686</v>
+        <v>677</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1203</v>
       </c>
       <c r="E172" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B173" t="s">
-        <v>689</v>
-      </c>
-      <c r="C173" t="s">
-        <v>690</v>
+        <v>681</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1228</v>
       </c>
       <c r="E173" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B174" t="s">
-        <v>693</v>
-      </c>
-      <c r="C174" t="s">
-        <v>694</v>
+        <v>685</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1210</v>
       </c>
       <c r="E174" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B175" t="s">
-        <v>697</v>
-      </c>
-      <c r="C175" t="s">
-        <v>698</v>
+        <v>689</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1206</v>
       </c>
       <c r="E175" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B176" t="s">
-        <v>701</v>
-      </c>
-      <c r="C176" t="s">
-        <v>702</v>
+        <v>693</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="E176" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B177" t="s">
-        <v>705</v>
-      </c>
-      <c r="C177" t="s">
-        <v>706</v>
+        <v>697</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="E177" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B178" t="s">
-        <v>709</v>
-      </c>
-      <c r="C178" t="s">
-        <v>710</v>
+        <v>701</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1225</v>
       </c>
       <c r="E178" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B179" t="s">
-        <v>713</v>
-      </c>
-      <c r="C179" t="s">
-        <v>714</v>
+        <v>705</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1218</v>
       </c>
       <c r="E179" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B180" t="s">
-        <v>717</v>
-      </c>
-      <c r="C180" t="s">
-        <v>718</v>
+        <v>709</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1217</v>
       </c>
       <c r="E180" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B181" t="s">
-        <v>721</v>
-      </c>
-      <c r="C181" t="s">
-        <v>722</v>
+        <v>713</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1208</v>
       </c>
       <c r="E181" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B182" t="s">
-        <v>725</v>
-      </c>
-      <c r="C182" t="s">
-        <v>726</v>
+        <v>717</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1226</v>
       </c>
       <c r="E182" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B183" t="s">
-        <v>729</v>
-      </c>
-      <c r="C183" t="s">
-        <v>730</v>
+        <v>721</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1226</v>
       </c>
       <c r="E183" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B184" t="s">
-        <v>733</v>
-      </c>
-      <c r="C184" t="s">
-        <v>734</v>
+        <v>725</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>726</v>
       </c>
       <c r="E184" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B185" t="s">
-        <v>737</v>
-      </c>
-      <c r="C185" t="s">
-        <v>738</v>
+        <v>729</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>730</v>
       </c>
       <c r="E185" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B186" t="s">
-        <v>741</v>
-      </c>
-      <c r="C186" t="s">
-        <v>742</v>
+        <v>733</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="E186" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B187" t="s">
-        <v>745</v>
-      </c>
-      <c r="C187" t="s">
-        <v>746</v>
+        <v>737</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1209</v>
       </c>
       <c r="E187" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B188" t="s">
-        <v>749</v>
-      </c>
-      <c r="C188" t="s">
-        <v>750</v>
+        <v>741</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>742</v>
       </c>
       <c r="E188" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B189" t="s">
-        <v>753</v>
-      </c>
-      <c r="C189" t="s">
-        <v>754</v>
+        <v>745</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1227</v>
       </c>
       <c r="E189" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B190" t="s">
-        <v>757</v>
-      </c>
-      <c r="C190" t="s">
-        <v>758</v>
+        <v>749</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1210</v>
       </c>
       <c r="E190" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B191" t="s">
-        <v>761</v>
-      </c>
-      <c r="C191" t="s">
-        <v>762</v>
+        <v>753</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>754</v>
       </c>
       <c r="E191" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B192" t="s">
-        <v>765</v>
-      </c>
-      <c r="C192" t="s">
-        <v>766</v>
+        <v>757</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>758</v>
       </c>
       <c r="E192" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B193" t="s">
-        <v>769</v>
-      </c>
-      <c r="C193" t="s">
-        <v>770</v>
+        <v>761</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1098</v>
       </c>
       <c r="E193" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B194" t="s">
-        <v>773</v>
-      </c>
-      <c r="C194" t="s">
-        <v>774</v>
+        <v>765</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>766</v>
       </c>
       <c r="E194" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B195" t="s">
-        <v>777</v>
-      </c>
-      <c r="C195" t="s">
-        <v>778</v>
+        <v>769</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1211</v>
       </c>
       <c r="E195" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B196" t="s">
-        <v>781</v>
-      </c>
-      <c r="C196" t="s">
-        <v>782</v>
+        <v>773</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1212</v>
       </c>
       <c r="E196" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B197" t="s">
-        <v>785</v>
-      </c>
-      <c r="C197" t="s">
-        <v>786</v>
+        <v>777</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="E197" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B198" t="s">
-        <v>789</v>
-      </c>
-      <c r="C198" t="s">
-        <v>790</v>
+        <v>781</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="E198" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B199" t="s">
-        <v>793</v>
-      </c>
-      <c r="C199" t="s">
-        <v>794</v>
+        <v>785</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1213</v>
       </c>
       <c r="E199" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B200" t="s">
-        <v>797</v>
-      </c>
-      <c r="C200" t="s">
-        <v>798</v>
+        <v>789</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1105</v>
       </c>
       <c r="E200" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B201" t="s">
-        <v>801</v>
-      </c>
-      <c r="C201" t="s">
-        <v>802</v>
+        <v>793</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>794</v>
       </c>
       <c r="E201" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B202" t="s">
-        <v>805</v>
-      </c>
-      <c r="C202" t="s">
-        <v>806</v>
+        <v>797</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1215</v>
       </c>
       <c r="E202" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B203" t="s">
-        <v>809</v>
-      </c>
-      <c r="C203" t="s">
-        <v>810</v>
+        <v>801</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1215</v>
       </c>
       <c r="E203" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B204" t="s">
-        <v>813</v>
-      </c>
-      <c r="C204" t="s">
-        <v>814</v>
+        <v>805</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1214</v>
       </c>
       <c r="E204" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B205" t="s">
-        <v>817</v>
-      </c>
-      <c r="C205" t="s">
-        <v>818</v>
+        <v>809</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="E205" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B206" t="s">
-        <v>821</v>
-      </c>
-      <c r="C206" t="s">
-        <v>822</v>
+        <v>813</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="E206" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B207" t="s">
-        <v>825</v>
-      </c>
-      <c r="C207" t="s">
-        <v>826</v>
+        <v>817</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1203</v>
       </c>
       <c r="E207" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B208" t="s">
-        <v>829</v>
-      </c>
-      <c r="C208" t="s">
-        <v>830</v>
+        <v>821</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1203</v>
       </c>
       <c r="E208" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B209" t="s">
-        <v>833</v>
-      </c>
-      <c r="C209" t="s">
-        <v>834</v>
+        <v>825</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>826</v>
       </c>
       <c r="E209" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B210" t="s">
-        <v>837</v>
-      </c>
-      <c r="C210" t="s">
-        <v>838</v>
+        <v>829</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>830</v>
       </c>
       <c r="E210" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B211" t="s">
-        <v>841</v>
-      </c>
-      <c r="C211" t="s">
-        <v>842</v>
+        <v>833</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>1151</v>
       </c>
       <c r="E211" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B212" t="s">
-        <v>845</v>
-      </c>
-      <c r="C212" t="s">
-        <v>846</v>
+        <v>836</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="E212" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B213" t="s">
-        <v>849</v>
-      </c>
-      <c r="C213" t="s">
-        <v>850</v>
+        <v>840</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="E213" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B214" t="s">
-        <v>853</v>
-      </c>
-      <c r="C214" t="s">
-        <v>854</v>
+        <v>843</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>1150</v>
       </c>
       <c r="E214" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B215" t="s">
-        <v>857</v>
-      </c>
-      <c r="C215" t="s">
-        <v>858</v>
+        <v>846</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="E215" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B216" t="s">
-        <v>861</v>
-      </c>
-      <c r="C216" t="s">
-        <v>862</v>
+        <v>850</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1155</v>
       </c>
       <c r="E216" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="B217" t="s">
-        <v>865</v>
-      </c>
-      <c r="C217" t="s">
-        <v>866</v>
+        <v>853</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>1148</v>
       </c>
       <c r="E217" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B218" t="s">
-        <v>869</v>
-      </c>
-      <c r="C218" t="s">
-        <v>870</v>
+        <v>856</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>1149</v>
       </c>
       <c r="E218" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="B219" t="s">
-        <v>873</v>
-      </c>
-      <c r="C219" t="s">
-        <v>874</v>
+        <v>859</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1156</v>
       </c>
       <c r="E219" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="B220" t="s">
-        <v>877</v>
-      </c>
-      <c r="C220" t="s">
-        <v>878</v>
+        <v>862</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>863</v>
       </c>
       <c r="E220" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="B221" t="s">
-        <v>881</v>
-      </c>
-      <c r="C221" t="s">
-        <v>882</v>
+        <v>866</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="E221" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B222" t="s">
-        <v>885</v>
-      </c>
-      <c r="C222" t="s">
-        <v>886</v>
+        <v>870</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>1146</v>
       </c>
       <c r="E222" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="B223" t="s">
-        <v>889</v>
-      </c>
-      <c r="C223" t="s">
-        <v>890</v>
+        <v>873</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="E223" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="B224" t="s">
-        <v>893</v>
-      </c>
-      <c r="C224" t="s">
-        <v>894</v>
+        <v>877</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="E224" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="B225" t="s">
-        <v>897</v>
-      </c>
-      <c r="C225" t="s">
-        <v>898</v>
+        <v>880</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="E225" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="B226" t="s">
-        <v>901</v>
-      </c>
-      <c r="C226" t="s">
-        <v>902</v>
+        <v>883</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>884</v>
       </c>
       <c r="E226" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="B227" t="s">
-        <v>905</v>
-      </c>
-      <c r="C227" t="s">
-        <v>906</v>
+        <v>887</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>1144</v>
       </c>
       <c r="E227" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="B228" t="s">
-        <v>909</v>
-      </c>
-      <c r="C228" t="s">
-        <v>910</v>
+        <v>890</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1143</v>
       </c>
       <c r="E228" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="B229" t="s">
-        <v>913</v>
-      </c>
-      <c r="C229" t="s">
-        <v>914</v>
+        <v>893</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>1143</v>
       </c>
       <c r="E229" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="B230" t="s">
-        <v>917</v>
-      </c>
-      <c r="C230" t="s">
-        <v>918</v>
+        <v>896</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>1143</v>
       </c>
       <c r="E230" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="B231" t="s">
-        <v>921</v>
-      </c>
-      <c r="C231" t="s">
-        <v>922</v>
+        <v>899</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>1141</v>
       </c>
       <c r="E231" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="B232" t="s">
-        <v>925</v>
-      </c>
-      <c r="C232" t="s">
-        <v>926</v>
+        <v>902</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>1150</v>
       </c>
       <c r="E232" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="B233" t="s">
-        <v>929</v>
-      </c>
-      <c r="C233" t="s">
-        <v>930</v>
+        <v>905</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>1141</v>
       </c>
       <c r="E233" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="B234" t="s">
-        <v>933</v>
-      </c>
-      <c r="C234" t="s">
-        <v>934</v>
+        <v>908</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="E234" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="B235" t="s">
-        <v>937</v>
-      </c>
-      <c r="C235" t="s">
-        <v>938</v>
+        <v>911</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="E235" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="B236" t="s">
-        <v>941</v>
-      </c>
-      <c r="C236" t="s">
-        <v>942</v>
+        <v>914</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>1142</v>
       </c>
       <c r="E236" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="B237" t="s">
-        <v>945</v>
-      </c>
-      <c r="C237" t="s">
-        <v>946</v>
+        <v>917</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1138</v>
       </c>
       <c r="E237" t="s">
-        <v>947</v>
+        <v>918</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="B238" t="s">
-        <v>949</v>
-      </c>
-      <c r="C238" t="s">
-        <v>950</v>
+        <v>920</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1140</v>
       </c>
       <c r="E238" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="B239" t="s">
-        <v>953</v>
-      </c>
-      <c r="C239" t="s">
-        <v>954</v>
+        <v>923</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1234</v>
       </c>
       <c r="E239" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="B240" t="s">
-        <v>957</v>
-      </c>
-      <c r="C240" t="s">
-        <v>958</v>
+        <v>927</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="E240" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="B241" t="s">
-        <v>961</v>
-      </c>
-      <c r="C241" t="s">
-        <v>962</v>
+        <v>931</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>932</v>
       </c>
       <c r="E241" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="B242" t="s">
-        <v>965</v>
-      </c>
-      <c r="C242" t="s">
-        <v>966</v>
+        <v>935</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>1136</v>
       </c>
       <c r="E242" t="s">
-        <v>967</v>
+        <v>936</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>968</v>
+        <v>937</v>
       </c>
       <c r="B243" t="s">
-        <v>969</v>
-      </c>
-      <c r="C243" t="s">
-        <v>970</v>
+        <v>938</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="E243" t="s">
-        <v>971</v>
+        <v>939</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>972</v>
+        <v>940</v>
       </c>
       <c r="B244" t="s">
-        <v>973</v>
-      </c>
-      <c r="C244" t="s">
-        <v>974</v>
+        <v>941</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1134</v>
       </c>
       <c r="E244" t="s">
-        <v>975</v>
+        <v>942</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="B245" t="s">
-        <v>977</v>
-      </c>
-      <c r="C245" t="s">
-        <v>978</v>
+        <v>944</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1132</v>
       </c>
       <c r="E245" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
       <c r="B246" t="s">
-        <v>981</v>
-      </c>
-      <c r="C246" t="s">
-        <v>982</v>
+        <v>947</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1153</v>
       </c>
       <c r="E246" t="s">
-        <v>983</v>
+        <v>948</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>984</v>
+        <v>949</v>
       </c>
       <c r="B247" t="s">
-        <v>985</v>
-      </c>
-      <c r="C247" t="s">
-        <v>986</v>
+        <v>950</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>951</v>
       </c>
       <c r="E247" t="s">
-        <v>987</v>
+        <v>952</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>988</v>
+        <v>953</v>
       </c>
       <c r="B248" t="s">
-        <v>989</v>
-      </c>
-      <c r="C248" t="s">
-        <v>990</v>
+        <v>954</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1081</v>
       </c>
       <c r="E248" t="s">
-        <v>991</v>
+        <v>955</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
       <c r="B249" t="s">
-        <v>993</v>
-      </c>
-      <c r="C249" t="s">
-        <v>994</v>
+        <v>957</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1127</v>
       </c>
       <c r="E249" t="s">
-        <v>995</v>
+        <v>958</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
       <c r="B250" t="s">
-        <v>997</v>
-      </c>
-      <c r="C250" t="s">
-        <v>998</v>
+        <v>960</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1125</v>
       </c>
       <c r="E250" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="B251" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1002</v>
+        <v>963</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1119</v>
       </c>
       <c r="E251" t="s">
-        <v>1003</v>
+        <v>964</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1004</v>
+        <v>965</v>
       </c>
       <c r="B252" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1006</v>
+        <v>966</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>1120</v>
       </c>
       <c r="E252" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1008</v>
+        <v>968</v>
       </c>
       <c r="B253" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1010</v>
+        <v>969</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1123</v>
       </c>
       <c r="E253" t="s">
-        <v>1011</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1012</v>
+        <v>971</v>
       </c>
       <c r="B254" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1014</v>
+        <v>972</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>973</v>
       </c>
       <c r="E254" t="s">
-        <v>1015</v>
+        <v>974</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1016</v>
+        <v>975</v>
       </c>
       <c r="B255" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1018</v>
+        <v>976</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1122</v>
       </c>
       <c r="E255" t="s">
-        <v>1019</v>
+        <v>977</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1020</v>
+        <v>978</v>
       </c>
       <c r="B256" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1022</v>
+        <v>979</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1129</v>
       </c>
       <c r="E256" t="s">
-        <v>1023</v>
+        <v>980</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="B257" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1026</v>
+        <v>982</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>983</v>
       </c>
       <c r="E257" t="s">
-        <v>1027</v>
+        <v>984</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="B258" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1030</v>
+        <v>986</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="E258" t="s">
-        <v>1031</v>
+        <v>988</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1032</v>
+        <v>989</v>
       </c>
       <c r="B259" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1034</v>
+        <v>990</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="E259" t="s">
-        <v>1035</v>
+        <v>992</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1036</v>
+        <v>993</v>
       </c>
       <c r="B260" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1038</v>
+        <v>994</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>995</v>
       </c>
       <c r="E260" t="s">
-        <v>1039</v>
+        <v>996</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1040</v>
+        <v>997</v>
       </c>
       <c r="B261" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1042</v>
+        <v>998</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1117</v>
       </c>
       <c r="E261" t="s">
-        <v>1043</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="B262" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1046</v>
+        <v>1002</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1116</v>
       </c>
       <c r="E262" t="s">
-        <v>1047</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1048</v>
+        <v>1005</v>
       </c>
       <c r="B263" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1050</v>
+        <v>1006</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1114</v>
       </c>
       <c r="E263" t="s">
-        <v>1051</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1052</v>
+        <v>1008</v>
       </c>
       <c r="B264" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1054</v>
+        <v>1009</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1098</v>
       </c>
       <c r="E264" t="s">
-        <v>1055</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1056</v>
+        <v>1012</v>
       </c>
       <c r="B265" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1058</v>
+        <v>1013</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1111</v>
       </c>
       <c r="E265" t="s">
-        <v>1059</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1060</v>
+        <v>1015</v>
       </c>
       <c r="B266" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1062</v>
+        <v>1016</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1109</v>
       </c>
       <c r="E266" t="s">
-        <v>1063</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1064</v>
+        <v>1018</v>
       </c>
       <c r="B267" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1066</v>
+        <v>1019</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1108</v>
       </c>
       <c r="E267" t="s">
-        <v>1067</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="B268" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1070</v>
+        <v>1022</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1105</v>
       </c>
       <c r="E268" t="s">
-        <v>1071</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1072</v>
+        <v>1024</v>
       </c>
       <c r="B269" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1074</v>
+        <v>1025</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1102</v>
       </c>
       <c r="E269" t="s">
-        <v>1075</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1076</v>
+        <v>1027</v>
       </c>
       <c r="B270" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1078</v>
+        <v>1028</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1087</v>
       </c>
       <c r="E270" t="s">
-        <v>1079</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1080</v>
+        <v>1030</v>
       </c>
       <c r="B271" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1082</v>
+        <v>1031</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1100</v>
       </c>
       <c r="E271" t="s">
-        <v>1083</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1084</v>
+        <v>1033</v>
       </c>
       <c r="B272" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1086</v>
+        <v>1034</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1098</v>
       </c>
       <c r="E272" t="s">
-        <v>1087</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1088</v>
+        <v>1036</v>
       </c>
       <c r="B273" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1090</v>
+        <v>1037</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1095</v>
       </c>
       <c r="E273" t="s">
-        <v>1091</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1092</v>
+        <v>1039</v>
       </c>
       <c r="B274" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1094</v>
+        <v>1040</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>1041</v>
       </c>
       <c r="E274" t="s">
-        <v>1095</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1096</v>
+        <v>1043</v>
       </c>
       <c r="B275" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1098</v>
+        <v>1044</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>1045</v>
       </c>
       <c r="E275" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1100</v>
+        <v>1047</v>
       </c>
       <c r="B276" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1102</v>
+        <v>1048</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1104</v>
       </c>
       <c r="E276" t="s">
-        <v>1103</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="B277" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1106</v>
+        <v>1051</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>1088</v>
       </c>
       <c r="E277" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1108</v>
+        <v>1053</v>
       </c>
       <c r="B278" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1110</v>
+        <v>1054</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1088</v>
       </c>
       <c r="E278" t="s">
-        <v>1111</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1112</v>
+        <v>1057</v>
       </c>
       <c r="B279" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1114</v>
+        <v>1058</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1087</v>
       </c>
       <c r="E279" t="s">
-        <v>1115</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1116</v>
+        <v>1061</v>
       </c>
       <c r="B280" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1118</v>
+        <v>1062</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>1091</v>
       </c>
       <c r="E280" t="s">
-        <v>1119</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1120</v>
+        <v>1064</v>
       </c>
       <c r="B281" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1122</v>
+        <v>1065</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>1094</v>
       </c>
       <c r="E281" t="s">
-        <v>1123</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1124</v>
+        <v>1067</v>
       </c>
       <c r="B282" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1126</v>
+        <v>1068</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1090</v>
       </c>
       <c r="E282" t="s">
-        <v>1127</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1128</v>
+        <v>1070</v>
       </c>
       <c r="B283" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1130</v>
+        <v>1071</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1086</v>
       </c>
       <c r="E283" t="s">
-        <v>1131</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1132</v>
+        <v>1073</v>
       </c>
       <c r="B284" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1134</v>
+        <v>1074</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1085</v>
       </c>
       <c r="E284" t="s">
-        <v>1135</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1136</v>
+        <v>1076</v>
       </c>
       <c r="B285" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1138</v>
+        <v>1077</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1081</v>
       </c>
       <c r="E285" t="s">
-        <v>1139</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>

--- a/entries.xlsx
+++ b/entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p.mangartz/qr-present/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100767B-2A7A-5D45-BD67-94AD47123A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E0546-E30B-6E46-88DE-137320222420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="940" windowWidth="16880" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20640" yWindow="3780" windowWidth="16880" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1323">
   <si>
     <t>ID</t>
   </si>
@@ -3738,13 +3738,277 @@
   </si>
   <si>
     <t>München</t>
+  </si>
+  <si>
+    <t>2025-08-21_205727.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205732.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205738.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205742.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205748.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205757.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205823.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205827.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205832.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205833.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205838.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205845.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205857.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205909.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205914.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_205926.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210003.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210004.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210026.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210032.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210038.jpeg</t>
+  </si>
+  <si>
+    <t>2025-08-21_210050.jpeg</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:27</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:32</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:38</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:42</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:48</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:57:57</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:23</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:27</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:32</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:33</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:38</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:45</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:58:57</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:59:09</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:59:14</t>
+  </si>
+  <si>
+    <t>2025-08-21 20:59:26</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:03</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:04</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:26</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:32</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:38</t>
+  </si>
+  <si>
+    <t>2025-08-21 21:00:50</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/285.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/286.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/287.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/288.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/289.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/290.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/291.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/292.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/293.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/294.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/295.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/296.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/297.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/298.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/299.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/300.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/301.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/302.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/303.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/304.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/305.html</t>
+  </si>
+  <si>
+    <t>https://pama05.github.io/qr-present/e/306.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3768,6 +4032,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3805,10 +4083,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3818,12 +4097,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4124,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4657,7 +4936,7 @@
       <c r="C32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="E32" t="s">
@@ -4674,7 +4953,7 @@
       <c r="C33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="E33" t="s">
@@ -4691,7 +4970,7 @@
       <c r="C34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="E34" t="s">
@@ -4708,7 +4987,7 @@
       <c r="C35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E35" t="s">
@@ -4725,7 +5004,7 @@
       <c r="C36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E36" t="s">
@@ -4742,7 +5021,7 @@
       <c r="C37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E37" t="s">
@@ -4759,7 +5038,7 @@
       <c r="C38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E38" t="s">
@@ -4776,7 +5055,7 @@
       <c r="C39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E39" t="s">
@@ -4793,7 +5072,7 @@
       <c r="C40" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E40" t="s">
@@ -4810,7 +5089,7 @@
       <c r="C41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>1169</v>
       </c>
       <c r="E41" t="s">
@@ -4827,7 +5106,7 @@
       <c r="C42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>1087</v>
       </c>
       <c r="E42" t="s">
@@ -4844,7 +5123,7 @@
       <c r="C43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>1087</v>
       </c>
       <c r="E43" t="s">
@@ -4861,7 +5140,7 @@
       <c r="C44" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>1170</v>
       </c>
       <c r="E44" t="s">
@@ -4878,7 +5157,7 @@
       <c r="C45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>1171</v>
       </c>
       <c r="E45" t="s">
@@ -4895,7 +5174,7 @@
       <c r="C46" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E46" t="s">
@@ -4912,7 +5191,7 @@
       <c r="C47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E47" t="s">
@@ -4929,7 +5208,7 @@
       <c r="C48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>1172</v>
       </c>
       <c r="E48" t="s">
@@ -4946,7 +5225,7 @@
       <c r="C49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>1173</v>
       </c>
       <c r="E49" t="s">
@@ -4963,7 +5242,7 @@
       <c r="C50" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>1173</v>
       </c>
       <c r="E50" t="s">
@@ -4980,7 +5259,7 @@
       <c r="C51" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>1173</v>
       </c>
       <c r="E51" t="s">
@@ -4997,7 +5276,7 @@
       <c r="C52" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E52" t="s">
@@ -5014,7 +5293,7 @@
       <c r="C53" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="E53" t="s">
@@ -5045,7 +5324,7 @@
       <c r="C55" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="6" t="s">
         <v>1174</v>
       </c>
       <c r="E55" t="s">
@@ -5076,7 +5355,7 @@
       <c r="C57" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>1175</v>
       </c>
       <c r="E57" t="s">
@@ -5110,7 +5389,7 @@
       <c r="C59" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>1175</v>
       </c>
       <c r="E59" t="s">
@@ -7774,7 +8053,7 @@
       <c r="C227" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="7" t="s">
         <v>888</v>
       </c>
     </row>
@@ -7785,7 +8064,7 @@
       <c r="B228" t="s">
         <v>890</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="E228" t="s">
@@ -7799,7 +8078,7 @@
       <c r="B229" t="s">
         <v>893</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="E229" t="s">
@@ -7813,7 +8092,7 @@
       <c r="B230" t="s">
         <v>896</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="E230" t="s">
@@ -7827,7 +8106,7 @@
       <c r="B231" t="s">
         <v>899</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="E231" t="s">
@@ -7855,7 +8134,7 @@
       <c r="B233" t="s">
         <v>905</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="E233" t="s">
@@ -7897,7 +8176,7 @@
       <c r="B236" t="s">
         <v>914</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="5" t="s">
         <v>1142</v>
       </c>
       <c r="E236" t="s">
@@ -8470,7 +8749,7 @@
       <c r="B272" t="s">
         <v>1034</v>
       </c>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="3" t="s">
         <v>1115</v>
       </c>
       <c r="D272" t="s">
@@ -8552,7 +8831,7 @@
       <c r="C277" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="D277" s="6" t="s">
+      <c r="D277" t="s">
         <v>1088</v>
       </c>
       <c r="E277" t="s">
@@ -8603,7 +8882,7 @@
       <c r="C280" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="D280" s="6" t="s">
+      <c r="D280" t="s">
         <v>1091</v>
       </c>
       <c r="E280" t="s">
@@ -8617,10 +8896,10 @@
       <c r="B281" t="s">
         <v>1065</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="D281" s="6" t="s">
+      <c r="D281" t="s">
         <v>1094</v>
       </c>
       <c r="E281" t="s">
@@ -8634,7 +8913,7 @@
       <c r="B282" t="s">
         <v>1068</v>
       </c>
-      <c r="C282" s="5" t="s">
+      <c r="C282" s="3" t="s">
         <v>1089</v>
       </c>
       <c r="D282" t="s">
@@ -8695,7 +8974,319 @@
         <v>1078</v>
       </c>
     </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1322</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E227" r:id="rId1" xr:uid="{03B2180C-E5D7-C34D-BCD5-EC6185CA52DC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>